--- a/data/Revenue_Cloud_Complete_Upload_Template.xlsx
+++ b/data/Revenue_Cloud_Complete_Upload_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcdebrey/cpq-revenue-cloud-migration/POC/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747C2AC0-7678-884B-BE2A-D879323E5831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5650A51-A450-A34B-85B3-6E390959797D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58140" yWindow="3620" windowWidth="34560" windowHeight="21580" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="109340" yWindow="3540" windowWidth="34560" windowHeight="21580" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="665">
   <si>
     <t>Step</t>
   </si>
@@ -547,18 +547,6 @@
     <t>SortOrder</t>
   </si>
   <si>
-    <t>Core Offerings</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>Add-Ons</t>
-  </si>
-  <si>
-    <t>AO</t>
-  </si>
-  <si>
     <t>Standalone</t>
   </si>
   <si>
@@ -2090,6 +2078,18 @@
   </si>
   <si>
     <t>TaxEngineCountry</t>
+  </si>
+  <si>
+    <t>Defensive Security</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>Digital Risk and Email Protection</t>
+  </si>
+  <si>
+    <t>DREP</t>
   </si>
 </sst>
 </file>
@@ -3516,46 +3516,46 @@
         <v>147</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>132</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>131</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E2" s="7" t="b">
         <v>1</v>
@@ -3563,7 +3563,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
@@ -3572,10 +3572,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -3585,7 +3585,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="19"/>
       <c r="H3" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -3594,10 +3594,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -3607,7 +3607,7 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -3616,10 +3616,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -3629,7 +3629,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="18" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -3638,10 +3638,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -3651,7 +3651,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="18" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -3660,10 +3660,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -3673,7 +3673,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="18" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -3682,10 +3682,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -3695,7 +3695,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="18" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -3704,10 +3704,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -3717,7 +3717,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="18" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -3726,10 +3726,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -3739,7 +3739,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="18" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -3748,14 +3748,14 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C11" s="28"/>
       <c r="D11" s="28" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E11" s="7" t="b">
         <v>1</v>
@@ -3763,7 +3763,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="28" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="I11" s="35"/>
       <c r="J11" s="7"/>
@@ -3772,14 +3772,14 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="28" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E12" s="7" t="b">
         <v>1</v>
@@ -3787,7 +3787,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="28" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -3796,14 +3796,14 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="28" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E13" s="7" t="b">
         <v>1</v>
@@ -3811,7 +3811,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="29" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -3820,14 +3820,14 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="28" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E14" s="7" t="b">
         <v>1</v>
@@ -3835,7 +3835,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="28" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="I14" s="35"/>
       <c r="J14" s="7"/>
@@ -3844,14 +3844,14 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C15" s="28"/>
       <c r="D15" s="28" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E15" s="7" t="b">
         <v>1</v>
@@ -3859,7 +3859,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="28" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -3868,14 +3868,14 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C16" s="28"/>
       <c r="D16" s="28" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E16" s="7" t="b">
         <v>1</v>
@@ -3883,7 +3883,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="28" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -3892,14 +3892,14 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C17" s="28"/>
       <c r="D17" s="28" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E17" s="7" t="b">
         <v>1</v>
@@ -3907,7 +3907,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="28" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
@@ -3916,14 +3916,14 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C18" s="28"/>
       <c r="D18" s="28" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E18" s="7" t="b">
         <v>1</v>
@@ -3931,7 +3931,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="28" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -3940,14 +3940,14 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C19" s="28"/>
       <c r="D19" s="28" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E19" s="7" t="b">
         <v>1</v>
@@ -3955,7 +3955,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="28" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
@@ -3964,14 +3964,14 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C20" s="28"/>
       <c r="D20" s="28" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E20" s="7" t="b">
         <v>1</v>
@@ -3979,7 +3979,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="28" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -3988,14 +3988,14 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C21" s="28"/>
       <c r="D21" s="28" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E21" s="7" t="b">
         <v>1</v>
@@ -4003,7 +4003,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="28" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
@@ -4048,151 +4048,151 @@
         <v>132</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E2" s="35"/>
       <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:6" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="35" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E3" s="35"/>
       <c r="F3" s="35"/>
     </row>
     <row r="4" spans="1:6" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B4" s="35"/>
       <c r="C4" s="35" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="35"/>
     </row>
     <row r="5" spans="1:6" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B5" s="35"/>
       <c r="C5" s="35" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E5" s="35"/>
       <c r="F5" s="35"/>
     </row>
     <row r="6" spans="1:6" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B6" s="35"/>
       <c r="C6" s="35" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E6" s="35"/>
       <c r="F6" s="35"/>
     </row>
     <row r="7" spans="1:6" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B7" s="35"/>
       <c r="C7" s="35" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E7" s="35"/>
       <c r="F7" s="35"/>
     </row>
     <row r="8" spans="1:6" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B8" s="35"/>
       <c r="C8" s="35" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E8" s="35"/>
       <c r="F8" s="35"/>
     </row>
     <row r="9" spans="1:6" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B9" s="35"/>
       <c r="C9" s="35" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E9" s="35"/>
       <c r="F9" s="35"/>
     </row>
     <row r="10" spans="1:6" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B10" s="35"/>
       <c r="C10" s="35" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E10" s="35"/>
       <c r="F10" s="35"/>
     </row>
     <row r="11" spans="1:6" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B11" s="35"/>
       <c r="C11" s="35" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E11" s="35"/>
       <c r="F11" s="35"/>
@@ -4247,729 +4247,729 @@
         <v>130</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F1" s="32" t="s">
         <v>131</v>
       </c>
       <c r="G1" s="32" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H1" s="32" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="I1" s="32" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="J1" s="32" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="33" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
       <c r="D2" s="38"/>
       <c r="E2" s="33"/>
       <c r="F2" s="33" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="G2" s="33"/>
       <c r="H2" s="33"/>
       <c r="I2" s="33" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="J2" s="33"/>
     </row>
     <row r="3" spans="1:10" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="33" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B3" s="36"/>
       <c r="C3" s="33"/>
       <c r="D3" s="38"/>
       <c r="E3" s="33"/>
       <c r="F3" s="33" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="G3" s="33"/>
       <c r="H3" s="33"/>
       <c r="I3" s="33" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="J3" s="36"/>
     </row>
     <row r="4" spans="1:10" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="33" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B4" s="37"/>
       <c r="C4" s="33"/>
       <c r="D4" s="38"/>
       <c r="E4" s="33"/>
       <c r="F4" s="33" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="G4" s="33"/>
       <c r="H4" s="33"/>
       <c r="I4" s="33" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="J4" s="37"/>
     </row>
     <row r="5" spans="1:10" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="33" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B5" s="33"/>
       <c r="C5" s="35"/>
       <c r="D5" s="38"/>
       <c r="E5" s="33"/>
       <c r="F5" s="33" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
       <c r="I5" s="33" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="J5" s="33"/>
     </row>
     <row r="6" spans="1:10" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="33" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B6" s="33"/>
       <c r="C6" s="35"/>
       <c r="D6" s="38"/>
       <c r="E6" s="33"/>
       <c r="F6" s="33" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G6" s="33"/>
       <c r="H6" s="33"/>
       <c r="I6" s="33" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:10" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="33" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B7" s="33"/>
       <c r="C7" s="35"/>
       <c r="D7" s="38"/>
       <c r="E7" s="33"/>
       <c r="F7" s="33" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
       <c r="I7" s="33" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:10" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B8" s="37"/>
       <c r="C8" s="35"/>
       <c r="D8" s="37"/>
       <c r="E8" s="37"/>
       <c r="F8" s="33" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="G8" s="33"/>
       <c r="H8" s="33"/>
       <c r="I8" s="33" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="J8" s="37"/>
     </row>
     <row r="9" spans="1:10" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B9" s="37"/>
       <c r="C9" s="35"/>
       <c r="D9" s="37"/>
       <c r="E9" s="37"/>
       <c r="F9" s="33" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="G9" s="33"/>
       <c r="H9" s="33"/>
       <c r="I9" s="33" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="J9" s="37"/>
     </row>
     <row r="10" spans="1:10" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="33" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B10" s="37"/>
       <c r="C10" s="35"/>
       <c r="D10" s="37"/>
       <c r="E10" s="37"/>
       <c r="F10" s="33" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="G10" s="33"/>
       <c r="H10" s="33"/>
       <c r="I10" s="33" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="J10" s="37"/>
     </row>
     <row r="11" spans="1:10" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="33" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B11" s="37"/>
       <c r="C11" s="35"/>
       <c r="D11" s="37"/>
       <c r="E11" s="37"/>
       <c r="F11" s="33" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="G11" s="33"/>
       <c r="H11" s="33"/>
       <c r="I11" s="33" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="J11" s="37"/>
     </row>
     <row r="12" spans="1:10" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="33" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B12" s="37"/>
       <c r="C12" s="35"/>
       <c r="D12" s="37"/>
       <c r="E12" s="37"/>
       <c r="F12" s="33" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
       <c r="I12" s="33" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="J12" s="37"/>
     </row>
     <row r="13" spans="1:10" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="33" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B13" s="37"/>
       <c r="C13" s="35"/>
       <c r="D13" s="37"/>
       <c r="E13" s="37"/>
       <c r="F13" s="33" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
       <c r="I13" s="33" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="J13" s="37"/>
     </row>
     <row r="14" spans="1:10" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="33" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B14" s="37"/>
       <c r="C14" s="35"/>
       <c r="D14" s="37"/>
       <c r="E14" s="37"/>
       <c r="F14" s="33" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
       <c r="I14" s="33" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="J14" s="37"/>
     </row>
     <row r="15" spans="1:10" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="33" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B15" s="37"/>
       <c r="C15" s="35"/>
       <c r="D15" s="37"/>
       <c r="E15" s="37"/>
       <c r="F15" s="33" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
       <c r="I15" s="33" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="J15" s="37"/>
     </row>
     <row r="16" spans="1:10" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="33" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B16" s="37"/>
       <c r="C16" s="35"/>
       <c r="D16" s="37"/>
       <c r="E16" s="37"/>
       <c r="F16" s="33" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
       <c r="I16" s="33" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="J16" s="37"/>
     </row>
     <row r="17" spans="1:10" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="33" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B17" s="37"/>
       <c r="C17" s="35"/>
       <c r="D17" s="37"/>
       <c r="E17" s="37"/>
       <c r="F17" s="33" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G17" s="33"/>
       <c r="H17" s="33"/>
       <c r="I17" s="33" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="J17" s="37"/>
     </row>
     <row r="18" spans="1:10" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="33" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B18" s="37"/>
       <c r="C18" s="35"/>
       <c r="D18" s="37"/>
       <c r="E18" s="37"/>
       <c r="F18" s="33" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G18" s="33"/>
       <c r="H18" s="33"/>
       <c r="I18" s="33" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="J18" s="37"/>
     </row>
     <row r="19" spans="1:10" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="33" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B19" s="38"/>
       <c r="C19" s="35"/>
       <c r="D19" s="38"/>
       <c r="E19" s="38"/>
       <c r="F19" s="38" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G19" s="33"/>
       <c r="H19" s="33"/>
       <c r="I19" s="33" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="J19" s="38"/>
     </row>
     <row r="20" spans="1:10" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="33" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B20" s="38"/>
       <c r="C20" s="35"/>
       <c r="D20" s="38"/>
       <c r="E20" s="38"/>
       <c r="F20" s="33" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G20" s="33"/>
       <c r="H20" s="33"/>
       <c r="I20" s="33" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="J20" s="33"/>
     </row>
     <row r="21" spans="1:10" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="33" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B21" s="38"/>
       <c r="C21" s="35"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="33" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G21" s="33"/>
       <c r="H21" s="33"/>
       <c r="I21" s="33" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="J21" s="33"/>
     </row>
     <row r="22" spans="1:10" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="33" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B22" s="38"/>
       <c r="C22" s="35"/>
       <c r="D22" s="38"/>
       <c r="E22" s="38"/>
       <c r="F22" s="33" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G22" s="33"/>
       <c r="H22" s="33"/>
       <c r="I22" s="33" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="J22" s="33"/>
     </row>
     <row r="23" spans="1:10" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="33" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B23" s="38"/>
       <c r="C23" s="35"/>
       <c r="D23" s="38"/>
       <c r="E23" s="38"/>
       <c r="F23" s="33" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G23" s="33"/>
       <c r="H23" s="33"/>
       <c r="I23" s="33" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="J23" s="33"/>
     </row>
     <row r="24" spans="1:10" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="33" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B24" s="38"/>
       <c r="C24" s="35"/>
       <c r="D24" s="38"/>
       <c r="E24" s="38"/>
       <c r="F24" s="33" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G24" s="33"/>
       <c r="H24" s="33"/>
       <c r="I24" s="33" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="J24" s="33"/>
     </row>
     <row r="25" spans="1:10" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="33" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B25" s="38"/>
       <c r="C25" s="35"/>
       <c r="D25" s="38"/>
       <c r="E25" s="38"/>
       <c r="F25" s="33" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="G25" s="33"/>
       <c r="H25" s="33"/>
       <c r="I25" s="33" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="J25" s="33"/>
     </row>
     <row r="26" spans="1:10" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="33" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B26" s="38"/>
       <c r="C26" s="35"/>
       <c r="D26" s="38"/>
       <c r="E26" s="38"/>
       <c r="F26" s="33" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G26" s="33"/>
       <c r="H26" s="33"/>
       <c r="I26" s="33" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="J26" s="33"/>
     </row>
     <row r="27" spans="1:10" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="33" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B27" s="37"/>
       <c r="C27" s="35"/>
       <c r="D27" s="37"/>
       <c r="E27" s="37"/>
       <c r="F27" s="33" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="G27" s="33"/>
       <c r="H27" s="33"/>
       <c r="I27" s="33" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="J27" s="33"/>
     </row>
     <row r="28" spans="1:10" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="33" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B28" s="37"/>
       <c r="C28" s="35"/>
       <c r="D28" s="37"/>
       <c r="E28" s="37"/>
       <c r="F28" s="33" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="G28" s="33"/>
       <c r="H28" s="33"/>
       <c r="I28" s="33" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="J28" s="33"/>
     </row>
     <row r="29" spans="1:10" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="33" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B29" s="37"/>
       <c r="C29" s="35"/>
       <c r="D29" s="37"/>
       <c r="E29" s="37"/>
       <c r="F29" s="33" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="G29" s="33"/>
       <c r="H29" s="33"/>
       <c r="I29" s="33" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="J29" s="33"/>
     </row>
     <row r="30" spans="1:10" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="33" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B30" s="37"/>
       <c r="C30" s="35"/>
       <c r="D30" s="37"/>
       <c r="E30" s="37"/>
       <c r="F30" s="33" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="G30" s="33"/>
       <c r="H30" s="33"/>
       <c r="I30" s="33" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="J30" s="33"/>
     </row>
     <row r="31" spans="1:10" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="33" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B31" s="37"/>
       <c r="C31" s="35"/>
       <c r="D31" s="37"/>
       <c r="E31" s="37"/>
       <c r="F31" s="33" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="G31" s="33"/>
       <c r="H31" s="33"/>
       <c r="I31" s="33" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="J31" s="33"/>
     </row>
     <row r="32" spans="1:10" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="33" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B32" s="37"/>
       <c r="C32" s="35"/>
       <c r="D32" s="37"/>
       <c r="E32" s="37"/>
       <c r="F32" s="33" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="G32" s="33"/>
       <c r="H32" s="33"/>
       <c r="I32" s="33" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="J32" s="33"/>
     </row>
     <row r="33" spans="1:10" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="33" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B33" s="37"/>
       <c r="C33" s="35"/>
       <c r="D33" s="37"/>
       <c r="E33" s="37"/>
       <c r="F33" s="37" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="G33" s="33"/>
       <c r="H33" s="33"/>
       <c r="I33" s="33" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="J33" s="37"/>
     </row>
     <row r="34" spans="1:10" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="33" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B34" s="37"/>
       <c r="C34" s="35"/>
       <c r="D34" s="37"/>
       <c r="E34" s="37"/>
       <c r="F34" s="37" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="G34" s="33"/>
       <c r="H34" s="33"/>
       <c r="I34" s="33" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="J34" s="37"/>
     </row>
     <row r="35" spans="1:10" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="33" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B35" s="37"/>
       <c r="C35" s="35"/>
       <c r="D35" s="37"/>
       <c r="E35" s="37"/>
       <c r="F35" s="37" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="G35" s="33"/>
       <c r="H35" s="33"/>
       <c r="I35" s="33" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="J35" s="37"/>
     </row>
     <row r="36" spans="1:10" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="33" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B36" s="37"/>
       <c r="C36" s="35"/>
       <c r="D36" s="37"/>
       <c r="E36" s="37"/>
       <c r="F36" s="37" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="G36" s="33"/>
       <c r="H36" s="33"/>
       <c r="I36" s="33" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="J36" s="37"/>
     </row>
     <row r="37" spans="1:10" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="33" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B37" s="37"/>
       <c r="C37" s="35"/>
       <c r="D37" s="37"/>
       <c r="E37" s="37"/>
       <c r="F37" s="37" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="G37" s="33"/>
       <c r="H37" s="33"/>
       <c r="I37" s="33" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="J37" s="37"/>
     </row>
     <row r="38" spans="1:10" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="33" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B38" s="37"/>
       <c r="C38" s="35"/>
       <c r="D38" s="37"/>
       <c r="E38" s="37"/>
       <c r="F38" s="37" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="G38" s="33"/>
       <c r="H38" s="33"/>
       <c r="I38" s="33" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="J38" s="37"/>
     </row>
     <row r="39" spans="1:10" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="33" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B39" s="37"/>
       <c r="C39" s="35"/>
       <c r="D39" s="37"/>
       <c r="E39" s="37"/>
       <c r="F39" s="37" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="G39" s="33"/>
       <c r="H39" s="33"/>
       <c r="I39" s="33" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="J39" s="37"/>
     </row>
     <row r="40" spans="1:10" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="33" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B40" s="33"/>
       <c r="C40" s="35"/>
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
       <c r="F40" s="33" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="G40" s="33"/>
       <c r="H40" s="33"/>
       <c r="I40" s="33" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="J40" s="33"/>
     </row>
@@ -5116,46 +5116,46 @@
         <v>147</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="J1" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="O1" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>540</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>544</v>
       </c>
       <c r="Q1" s="5" t="s">
         <v>132</v>
@@ -5163,10 +5163,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -5181,17 +5181,17 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -5206,17 +5206,17 @@
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -5231,17 +5231,17 @@
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -5256,17 +5256,17 @@
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -5281,17 +5281,17 @@
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -5306,17 +5306,17 @@
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -5331,17 +5331,17 @@
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -5356,17 +5356,17 @@
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -5381,17 +5381,17 @@
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -5406,17 +5406,17 @@
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -5431,17 +5431,17 @@
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -5456,17 +5456,17 @@
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -5481,17 +5481,17 @@
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -5506,17 +5506,17 @@
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -5531,17 +5531,17 @@
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -5556,17 +5556,17 @@
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -5581,7 +5581,7 @@
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
@@ -6005,72 +6005,72 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -6116,24 +6116,24 @@
         <v>132</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="D2" s="7" t="b">
         <v>1</v>
@@ -6143,13 +6143,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D3" s="7" t="b">
         <v>0</v>
@@ -6159,13 +6159,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B4" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C4" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -6173,13 +6173,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B5" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C5" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -6217,33 +6217,33 @@
         <v>129</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>600</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>601</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D2" s="7">
         <v>250</v>
@@ -6256,13 +6256,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D3" s="7">
         <v>250</v>
@@ -6275,13 +6275,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D4" s="7">
         <v>250</v>
@@ -6294,13 +6294,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D5" s="7">
         <v>250</v>
@@ -6313,13 +6313,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D6" s="7">
         <v>250</v>
@@ -6332,13 +6332,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D7" s="7">
         <v>250</v>
@@ -6351,13 +6351,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D8" s="7">
         <v>250</v>
@@ -6370,13 +6370,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D9" s="7">
         <v>250</v>
@@ -6389,13 +6389,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D10" s="7">
         <v>250</v>
@@ -6408,13 +6408,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D11" s="7">
         <v>250</v>
@@ -6427,13 +6427,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D12" s="7">
         <v>250</v>
@@ -6446,13 +6446,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D13" s="7">
         <v>1200</v>
@@ -6465,13 +6465,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D14" s="7">
         <v>1800</v>
@@ -6484,13 +6484,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D15" s="7">
         <v>2000</v>
@@ -6503,13 +6503,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D16" s="7">
         <v>2500</v>
@@ -6522,13 +6522,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D17" s="7">
         <v>1200</v>
@@ -6541,13 +6541,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D18" s="7">
         <v>1800</v>
@@ -6560,13 +6560,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D19" s="7">
         <v>2000</v>
@@ -6579,13 +6579,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D20" s="7">
         <v>100</v>
@@ -6598,13 +6598,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D21" s="7">
         <v>5000</v>
@@ -6617,13 +6617,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D22" s="7">
         <v>5000</v>
@@ -6636,13 +6636,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D23" s="7">
         <v>5000</v>
@@ -6655,13 +6655,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D24" s="7">
         <v>250</v>
@@ -6717,13 +6717,13 @@
         <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
   </sheetData>
@@ -6756,13 +6756,13 @@
         <v>132</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>
@@ -6786,19 +6786,19 @@
         <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>
@@ -6923,22 +6923,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>
@@ -6959,10 +6959,10 @@
         <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
   </sheetData>
@@ -6980,16 +6980,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>
@@ -7010,13 +7010,13 @@
         <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>643</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>132</v>
@@ -7040,22 +7040,22 @@
         <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>643</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>132</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
   </sheetData>
@@ -7088,28 +7088,28 @@
         <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>649</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -7133,13 +7133,13 @@
         <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
   </sheetData>
@@ -7160,10 +7160,10 @@
         <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>132</v>
@@ -7184,34 +7184,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>660</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>664</v>
       </c>
     </row>
   </sheetData>
@@ -7221,18 +7221,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -7251,10 +7251,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>150</v>
+        <v>661</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>151</v>
+        <v>662</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>136</v>
@@ -7263,10 +7263,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>152</v>
+        <v>663</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>153</v>
+        <v>664</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>136</v>
@@ -7275,10 +7275,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>136</v>
@@ -7287,10 +7287,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>136</v>
@@ -7299,773 +7299,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13" t="s">
         <v>145</v>
       </c>
       <c r="D6" s="13"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>158</v>
-      </c>
-      <c r="C12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>158</v>
-      </c>
-      <c r="C13" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>158</v>
-      </c>
-      <c r="C14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>158</v>
-      </c>
-      <c r="C15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>158</v>
-      </c>
-      <c r="C16" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>158</v>
-      </c>
-      <c r="C17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>158</v>
-      </c>
-      <c r="C18" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>158</v>
-      </c>
-      <c r="C19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>158</v>
-      </c>
-      <c r="C20" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>158</v>
-      </c>
-      <c r="C21" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>158</v>
-      </c>
-      <c r="C22" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>158</v>
-      </c>
-      <c r="C23" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>158</v>
-      </c>
-      <c r="C24" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>158</v>
-      </c>
-      <c r="C25" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>158</v>
-      </c>
-      <c r="C26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>158</v>
-      </c>
-      <c r="C27" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>158</v>
-      </c>
-      <c r="C28" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>158</v>
-      </c>
-      <c r="C29" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>158</v>
-      </c>
-      <c r="C30" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>158</v>
-      </c>
-      <c r="C31" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>158</v>
-      </c>
-      <c r="C32" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>158</v>
-      </c>
-      <c r="C33" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>158</v>
-      </c>
-      <c r="C34" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>158</v>
-      </c>
-      <c r="C35" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>158</v>
-      </c>
-      <c r="C36" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>158</v>
-      </c>
-      <c r="C37" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>158</v>
-      </c>
-      <c r="C38" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>158</v>
-      </c>
-      <c r="C39" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>158</v>
-      </c>
-      <c r="C40" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>158</v>
-      </c>
-      <c r="C41" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>158</v>
-      </c>
-      <c r="C42" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>158</v>
-      </c>
-      <c r="C43" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>158</v>
-      </c>
-      <c r="C44" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>158</v>
-      </c>
-      <c r="C45" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>158</v>
-      </c>
-      <c r="C46" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>158</v>
-      </c>
-      <c r="C47" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>158</v>
-      </c>
-      <c r="C48" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>158</v>
-      </c>
-      <c r="C49" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>158</v>
-      </c>
-      <c r="C50" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>158</v>
-      </c>
-      <c r="C51" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>158</v>
-      </c>
-      <c r="C52" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>158</v>
-      </c>
-      <c r="C53" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>158</v>
-      </c>
-      <c r="C54" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>158</v>
-      </c>
-      <c r="C55" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>158</v>
-      </c>
-      <c r="C56" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>158</v>
-      </c>
-      <c r="C57" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>158</v>
-      </c>
-      <c r="C58" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>158</v>
-      </c>
-      <c r="C59" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>158</v>
-      </c>
-      <c r="C60" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>158</v>
-      </c>
-      <c r="C61" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>158</v>
-      </c>
-      <c r="C62" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>158</v>
-      </c>
-      <c r="C63" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>158</v>
-      </c>
-      <c r="C64" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>158</v>
-      </c>
-      <c r="C65" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>158</v>
-      </c>
-      <c r="C66" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>158</v>
-      </c>
-      <c r="C67" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>158</v>
-      </c>
-      <c r="C68" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>158</v>
-      </c>
-      <c r="C69" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>158</v>
-      </c>
-      <c r="C70" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>158</v>
-      </c>
-      <c r="C71" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>158</v>
-      </c>
-      <c r="C72" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>158</v>
-      </c>
-      <c r="C73" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>158</v>
-      </c>
-      <c r="C74" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>158</v>
-      </c>
-      <c r="C75" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>158</v>
-      </c>
-      <c r="C76" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>158</v>
-      </c>
-      <c r="C77" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>158</v>
-      </c>
-      <c r="C78" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>158</v>
-      </c>
-      <c r="C79" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>158</v>
-      </c>
-      <c r="C80" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>158</v>
-      </c>
-      <c r="C81" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>158</v>
-      </c>
-      <c r="C82" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>158</v>
-      </c>
-      <c r="C83" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>158</v>
-      </c>
-      <c r="C84" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>158</v>
-      </c>
-      <c r="C85" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>158</v>
-      </c>
-      <c r="C86" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>158</v>
-      </c>
-      <c r="C87" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>158</v>
-      </c>
-      <c r="C88" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>158</v>
-      </c>
-      <c r="C89" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>158</v>
-      </c>
-      <c r="C90" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>158</v>
-      </c>
-      <c r="C91" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>158</v>
-      </c>
-      <c r="C92" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>158</v>
-      </c>
-      <c r="C93" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>158</v>
-      </c>
-      <c r="C94" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>158</v>
-      </c>
-      <c r="C95" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>158</v>
-      </c>
-      <c r="C96" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>158</v>
-      </c>
-      <c r="C97" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>158</v>
-      </c>
-      <c r="C98" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>158</v>
-      </c>
-      <c r="C99" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>158</v>
-      </c>
-      <c r="C100" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>158</v>
-      </c>
-      <c r="C101" t="s">
-        <v>145</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8124,73 +7364,73 @@
         <v>147</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>132</v>
       </c>
       <c r="F1" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="M1" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="N1" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="P1" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="14" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F2" s="13" t="b">
         <v>0</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H2" s="15"/>
       <c r="I2" s="7"/>
@@ -8206,23 +7446,23 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="14" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F3" s="13" t="b">
         <v>0</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H3" s="15"/>
       <c r="I3" s="7"/>
@@ -8238,23 +7478,23 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="14" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F4" s="13" t="b">
         <v>0</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="7"/>
@@ -8270,23 +7510,23 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="14" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F5" s="13" t="b">
         <v>1</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="7"/>
@@ -8302,23 +7542,23 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="14" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F6" s="13" t="b">
         <v>1</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="7"/>
@@ -8334,23 +7574,23 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="14" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F7" s="13" t="b">
         <v>1</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="7"/>
@@ -8366,23 +7606,23 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="14" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F8" s="13" t="b">
         <v>1</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="7"/>
@@ -8398,23 +7638,23 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="14" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F9" s="13" t="b">
         <v>1</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="7"/>
@@ -8430,23 +7670,23 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="14" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F10" s="13" t="b">
         <v>1</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="7"/>
@@ -8462,23 +7702,23 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="14" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F11" s="13" t="b">
         <v>1</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="7"/>
@@ -8494,23 +7734,23 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="14" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F12" s="13" t="b">
         <v>1</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="7"/>
@@ -8526,23 +7766,23 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="14" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F13" s="13" t="b">
         <v>1</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="7"/>
@@ -8558,23 +7798,23 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="14" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F14" s="13" t="b">
         <v>1</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="7"/>
@@ -8590,23 +7830,23 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="24" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F15" s="23" t="b">
         <v>1</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H15" s="15"/>
       <c r="I15" s="7"/>
@@ -8622,23 +7862,23 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F16" s="13" t="b">
         <v>1</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H16" s="15"/>
       <c r="I16" s="7"/>
@@ -8654,23 +7894,23 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F17" s="13" t="b">
         <v>1</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H17" s="15"/>
       <c r="I17" s="7"/>
@@ -8686,23 +7926,23 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F18" s="13" t="b">
         <v>1</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="7"/>
@@ -8718,23 +7958,23 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F19" s="13" t="b">
         <v>1</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H19" s="15"/>
       <c r="I19" s="7"/>
@@ -8750,23 +7990,23 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F20" s="13" t="b">
         <v>1</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H20" s="15"/>
       <c r="I20" s="7"/>
@@ -8782,23 +8022,23 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="13" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F21" s="13" t="b">
         <v>1</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H21" s="15"/>
       <c r="I21" s="7"/>
@@ -8814,23 +8054,23 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F22" s="13" t="b">
         <v>1</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="7"/>
@@ -8846,23 +8086,23 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="13" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F23" s="13" t="b">
         <v>1</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H23" s="15"/>
       <c r="I23" s="7"/>
@@ -8878,23 +8118,23 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F24" s="13" t="b">
         <v>1</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="7"/>
@@ -8910,23 +8150,23 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F25" s="13" t="b">
         <v>1</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H25" s="15"/>
       <c r="I25" s="7"/>
@@ -8942,10 +8182,10 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
@@ -8968,10 +8208,10 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
@@ -9118,197 +8358,197 @@
         <v>129</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="9"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="9"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="9"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="9"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="9"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="9"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="9"/>
@@ -9391,140 +8631,140 @@
         <v>147</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -9559,10 +8799,10 @@
         <v>132</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>131</v>
@@ -9570,77 +8810,77 @@
     </row>
     <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -9757,23 +8997,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -9781,50 +9023,50 @@
         <v>129</v>
       </c>
       <c r="B1" s="41" t="s">
+        <v>317</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>318</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>319</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>320</v>
+      </c>
+      <c r="F1" s="41" t="s">
         <v>321</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="G1" s="41" t="s">
         <v>322</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="H1" s="41" t="s">
         <v>323</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="I1" s="40" t="s">
+        <v>303</v>
+      </c>
+      <c r="J1" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="K1" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="L1" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="M1" s="41" t="s">
         <v>327</v>
-      </c>
-      <c r="I1" s="40" t="s">
-        <v>307</v>
-      </c>
-      <c r="J1" s="41" t="s">
-        <v>328</v>
-      </c>
-      <c r="K1" s="41" t="s">
-        <v>329</v>
-      </c>
-      <c r="L1" s="41" t="s">
-        <v>330</v>
-      </c>
-      <c r="M1" s="41" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
@@ -9838,12 +9080,12 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -9857,12 +9099,12 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -9876,12 +9118,12 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -9895,12 +9137,12 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -9914,12 +9156,12 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -9933,12 +9175,12 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -9952,12 +9194,12 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -9971,12 +9213,12 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -9990,12 +9232,12 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -10009,12 +9251,12 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -10028,12 +9270,12 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -10047,12 +9289,12 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -10248,105 +9490,105 @@
         <v>131</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
